--- a/doc/实验计划.xlsx
+++ b/doc/实验计划.xlsx
@@ -1,28 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B77BF4-7B37-478F-B8FC-FC167F616AF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="数据合成实验" sheetId="1" r:id="rId1"/>
+    <sheet name="病灶有效性检测实验" sheetId="2" r:id="rId2"/>
+    <sheet name="数据可用性检测实验" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
+  <si>
+    <t>训练数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练数据混合方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先真后假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先假后真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15070*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15070*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15070*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15070*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15070*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/GPUFS/nsccgz_ywang_1/quyili/MultimodalGeneration/mm_test/mm_to_label</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -34,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,23 +151,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +282,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +334,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +527,479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>15070</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15070</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1650</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.2719704555190798E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.427985072914634</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.95449150772313096</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.84467005237936899</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7535</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7535</v>
+      </c>
+      <c r="D4" s="5">
+        <v>15070</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7535</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7535</v>
+      </c>
+      <c r="D5" s="5">
+        <v>15070</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7535</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7535</v>
+      </c>
+      <c r="D6" s="5">
+        <v>15070</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>15070</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7535</v>
+      </c>
+      <c r="D7" s="5">
+        <v>22605</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>15070</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15070</v>
+      </c>
+      <c r="D8" s="5">
+        <v>22605</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>15070</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>15070</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>15070</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>15070</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/实验计划.xlsx
+++ b/doc/实验计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B77BF4-7B37-478F-B8FC-FC167F616AF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F9259-5486-4BA7-ABCF-000C6E0696A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1995" windowWidth="24240" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据合成实验" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>训练数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,14 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>先真后假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,11 +87,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15070*6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/GPUFS/nsccgz_ywang_1/quyili/MultimodalGeneration/mm_test/mm_to_label</t>
+  </si>
+  <si>
+    <t>测试集大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15070*0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15070*0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15070*0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -135,15 +139,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -166,28 +176,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -541,462 +614,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1650</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.2719704555190798E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.95449150772313096</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1650</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>15070</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.427985072914634</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.84467005237936899</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="11.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>15070</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3.2719704555190798E-2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.95449150772313096</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>15070</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>15070</v>
+      </c>
+      <c r="C8" s="4">
+        <v>15070</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="B9" s="4">
+        <v>15070</v>
+      </c>
+      <c r="C9" s="4">
+        <v>15070</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="B10" s="4">
+        <v>15070</v>
+      </c>
+      <c r="C10" s="4">
+        <v>15070</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4" t="s">
+      <c r="B11" s="4">
+        <v>15070</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>15070</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>15070</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>15070</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="F3" s="5">
-        <v>1650</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1650</v>
-      </c>
-      <c r="H3" s="5">
-        <v>3.2719704555190798E-2</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.427985072914634</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.95449150772313096</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.84467005237936899</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>7535</v>
-      </c>
-      <c r="C4" s="5">
-        <v>7535</v>
-      </c>
-      <c r="D4" s="5">
-        <v>15070</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B13" s="4">
+        <v>15070</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="F4" s="5">
-        <v>1650</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>7535</v>
-      </c>
-      <c r="C5" s="5">
-        <v>7535</v>
-      </c>
-      <c r="D5" s="5">
-        <v>15070</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1650</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>7535</v>
-      </c>
-      <c r="C6" s="5">
-        <v>7535</v>
-      </c>
-      <c r="D6" s="5">
-        <v>15070</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1650</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>15070</v>
-      </c>
-      <c r="C7" s="5">
-        <v>7535</v>
-      </c>
-      <c r="D7" s="5">
-        <v>22605</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1650</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>15070</v>
-      </c>
-      <c r="C8" s="5">
-        <v>15070</v>
-      </c>
-      <c r="D8" s="5">
-        <v>22605</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1650</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>15070</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B14" s="4">
+        <v>15070</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1650</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>15070</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1650</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>15070</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1650</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>15070</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1650</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/实验计划.xlsx
+++ b/doc/实验计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F9259-5486-4BA7-ABCF-000C6E0696A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F91195-12DD-4A3D-ACB2-74C5A6B4D1DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1995" windowWidth="24240" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据合成实验" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>训练数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,13 @@
   <si>
     <t>15070*0.75</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常的数据增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15070*0.1</t>
   </si>
 </sst>
 </file>
@@ -222,9 +229,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,13 +241,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -255,11 +262,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,73 +629,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1650</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>3.2719704555190798E-2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.95449150772313096</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1650</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>15070</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.427985072914634</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.84467005237936899</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="12"/>
     </row>
   </sheetData>
@@ -703,278 +710,599 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="11.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="11.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
-        <v>15070</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="8">
+        <v>15070</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="8">
         <v>3.2719704555190798E-2</v>
       </c>
-      <c r="F3" s="14">
+      <c r="G3" s="8">
         <v>0.95449150772313096</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>15070</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15070</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15070</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>15070</v>
-      </c>
-      <c r="C8" s="4">
-        <v>15070</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>15070</v>
-      </c>
-      <c r="C9" s="4">
-        <v>15070</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15070</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>15070</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>15070</v>
-      </c>
-      <c r="C10" s="4">
-        <v>15070</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>15070</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>15070</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>15070</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>15070</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>15070</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C24" s="3">
+        <v>15070</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/实验计划.xlsx
+++ b/doc/实验计划.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F91195-12DD-4A3D-ACB2-74C5A6B4D1DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D59EF9-9D3C-44E7-B9C1-19A1B925C0B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +156,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +279,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,10 +737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -795,33 +822,34 @@
         <v>0.95449150772313096</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>15070</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+    </row>
+    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>15070</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2.6402593041973298E-2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.91463422480978895</v>
+      </c>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -829,19 +857,23 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
+      <c r="D5" s="3">
+        <v>15070</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3">
+        <v>0.16206485494556999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.59295606510368903</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -850,78 +882,86 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3">
+        <v>0.225412390457191</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.54385117502386804</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.20898721464724501</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.56406278619410199</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="E8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>15070</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -929,19 +969,23 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
+      <c r="D10" s="3">
+        <v>15070</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3">
+        <v>3.09668468508939E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.90036524341873603</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -950,18 +994,22 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="3">
+        <v>2.8388146542886301E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.898064396551565</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -970,118 +1018,134 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="3">
+        <v>2.9810416431802499E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.90385232896155099</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="3">
+        <v>3.0971976714372601E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.90357565119680405</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="3">
+        <v>4.5287106886480001E-2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.84964810329802198</v>
+      </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>15070</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="3">
-        <v>15070</v>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="3">
+        <v>2.4341006905549099E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.93466269390437595</v>
+      </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>15070</v>
@@ -1093,15 +1157,19 @@
         <v>15070</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.6934455701142002E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.92050220592405496</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>15070</v>
@@ -1113,15 +1181,19 @@
         <v>15070</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.19529573630215999</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.59583690920599897</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>15070</v>
@@ -1129,19 +1201,23 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
+      <c r="D20" s="3">
+        <v>15070</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.1264338140964699E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.94038101383637696</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
         <v>15070</v>
@@ -1150,84 +1226,92 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="3">
+        <v>2.84443007711743E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.90844023616605796</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5.0833098829138397E-2</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.756527052241869</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>15070</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B23" s="15">
+        <v>15070</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="E23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
-        <v>15070</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B24" s="15">
+        <v>15070</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>15070</v>
-      </c>
-      <c r="C24" s="3">
-        <v>15070</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="E24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>15070</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
+      <c r="C25" s="3">
+        <v>15070</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -1235,19 +1319,23 @@
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="3">
+        <v>2.5856256818407801E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.920768673027896</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>15070</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -1255,49 +1343,77 @@
       <c r="E26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="3">
+        <v>3.1039032123056601E-2</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.77464186511240496</v>
+      </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.5327735946268403E-2</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.77034065976211497</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
-        <v>15070</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="15">
+        <v>15070</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>15070</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="15">
+        <v>15070</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="D29" s="15">
+        <v>0</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/实验计划.xlsx
+++ b/doc/实验计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D59EF9-9D3C-44E7-B9C1-19A1B925C0B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A340AF-1030-4368-836B-44FB75723E17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>训练数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -279,21 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,7 +693,7 @@
         <v>0.95449150772313096</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -723,7 +723,7 @@
         <v>0.84467005237936899</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -737,10 +737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -754,12 +754,12 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -788,7 +788,7 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -823,57 +823,51 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
-        <v>15070</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="B4" s="12">
+        <v>15070</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="12">
         <v>2.6402593041973298E-2</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="12">
         <v>0.91463422480978895</v>
       </c>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>15070</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.16206485494556999</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.59295606510368903</v>
-      </c>
-      <c r="H5" s="3"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -881,111 +875,111 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
+      <c r="D6" s="3">
+        <v>15070</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3">
-        <v>0.225412390457191</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.54385117502386804</v>
+        <v>0.16206485494556999</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.59295606510368903</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.225412390457191</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.54385117502386804</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.20898721464724501</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G8" s="14">
         <v>0.56406278619410199</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15">
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>15070</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.09668468508939E-2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.90036524341873603</v>
-      </c>
-      <c r="H10" s="3"/>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -993,23 +987,23 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
+      <c r="D11" s="3">
+        <v>15070</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="3">
-        <v>2.8388146542886301E-2</v>
+        <v>3.09668468508939E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>0.898064396551565</v>
+        <v>0.90036524341873603</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1018,230 +1012,206 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="3">
+        <v>2.8388146542886301E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.898064396551565</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
         <v>2.9810416431802499E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>0.90385232896155099</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15">
-        <v>10</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3.0971976714372601E-2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.90357565119680405</v>
-      </c>
-      <c r="H15" s="3"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="3">
-        <v>4.5287106886480001E-2</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0.84964810329802198</v>
+        <v>3.0971976714372601E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.90357565119680405</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="3">
-        <v>2.4341006905549099E-2</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.93466269390437595</v>
+        <v>4.5287106886480001E-2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.84964810329802198</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>15070</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="3">
-        <v>15070</v>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3">
-        <v>2.6934455701142002E-2</v>
+        <v>2.4341006905549099E-2</v>
       </c>
       <c r="G18" s="3">
-        <v>0.92050220592405496</v>
+        <v>0.93466269390437595</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>15070</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>15070</v>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.19529573630215999</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0.59583690920599897</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>15070</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>15070</v>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2.1264338140964699E-2</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.94038101383637696</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>15070</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3">
-        <v>2.84443007711743E-2</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.90844023616605796</v>
-      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3">
         <v>15070</v>
@@ -1249,171 +1219,312 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>14</v>
+      <c r="D22" s="3">
+        <v>15070</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="3">
-        <v>5.0833098829138397E-2</v>
-      </c>
-      <c r="G22" s="19">
-        <v>0.756527052241869</v>
+        <v>2.6934455701142002E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.92050220592405496</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15">
-        <v>20</v>
-      </c>
-      <c r="B23" s="15">
-        <v>15070</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15">
-        <v>21</v>
-      </c>
-      <c r="B24" s="15">
-        <v>15070</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0</v>
-      </c>
-      <c r="D24" s="15" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="B23" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>15070</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.19529573630215999</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.59583690920599897</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>15070</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2.1264338140964699E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.94038101383637696</v>
+      </c>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3">
         <v>15070</v>
       </c>
       <c r="C25" s="3">
-        <v>15070</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="3">
-        <v>2.5856256818407801E-2</v>
+        <v>2.84443007711743E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.920768673027896</v>
+        <v>0.90844023616605796</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5.0833098829138397E-2</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.756527052241869</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>20</v>
+      </c>
+      <c r="B27" s="10">
+        <v>15070</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>21</v>
+      </c>
+      <c r="B28" s="10">
+        <v>15070</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C32" s="3">
+        <v>15070</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2.5856256818407801E-2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.920768673027896</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
-        <v>15070</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B33" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
         <v>3.1039032123056601E-2</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G33" s="14">
         <v>0.77464186511240496</v>
       </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
-        <v>15070</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B34" s="3">
+        <v>15070</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3">
         <v>3.5327735946268403E-2</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G34" s="14">
         <v>0.77034065976211497</v>
       </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10">
         <v>25</v>
       </c>
-      <c r="B28" s="15">
-        <v>15070</v>
-      </c>
-      <c r="C28" s="15" t="s">
+      <c r="B35" s="10">
+        <v>15070</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="15">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15">
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10">
         <v>26</v>
       </c>
-      <c r="B29" s="15">
-        <v>15070</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="B36" s="10">
+        <v>15070</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="15">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/实验计划.xlsx
+++ b/doc/实验计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A340AF-1030-4368-836B-44FB75723E17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D5E53-E91A-4274-8B1A-70D6DC23FA0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
   <si>
     <t>训练数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>15070*0.1</t>
+  </si>
+  <si>
+    <t>NEW MSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW SSIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -236,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +287,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -693,7 +704,7 @@
         <v>0.95449150772313096</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -707,7 +718,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -723,7 +734,7 @@
         <v>0.84467005237936899</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -737,10 +748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,17 +760,19 @@
     <col min="2" max="2" width="11.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="5" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="9" style="13"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -768,14 +781,17 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -788,18 +804,21 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -821,9 +840,10 @@
       <c r="G3" s="8">
         <v>0.95449150772313096</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="12"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -846,9 +866,12 @@
         <v>0.91463422480978895</v>
       </c>
       <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>31</v>
+      </c>
       <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
@@ -864,8 +887,9 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -887,9 +911,10 @@
       <c r="G6" s="14">
         <v>0.59295606510368903</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H6" s="12"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -911,9 +936,10 @@
       <c r="G7" s="14">
         <v>0.54385117502386804</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H7" s="12"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -935,9 +961,10 @@
       <c r="G8" s="14">
         <v>0.56406278619410199</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="12"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -955,9 +982,10 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="12"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -975,9 +1003,10 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H10" s="12"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -999,9 +1028,10 @@
       <c r="G11" s="3">
         <v>0.90036524341873603</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H11" s="12"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1023,9 +1053,10 @@
       <c r="G12" s="3">
         <v>0.898064396551565</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H12" s="12"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1047,9 +1078,10 @@
       <c r="G13" s="3">
         <v>0.90385232896155099</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="12"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -1067,9 +1099,10 @@
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="12"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -1087,9 +1120,10 @@
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H15" s="12"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1111,9 +1145,10 @@
       <c r="G16" s="3">
         <v>0.90357565119680405</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="12"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1135,9 +1170,10 @@
       <c r="G17" s="14">
         <v>0.84964810329802198</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="12"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1159,10 +1195,13 @@
       <c r="G18" s="3">
         <v>0.93466269390437595</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>32</v>
+      </c>
       <c r="B19" s="3">
         <v>15070</v>
       </c>
@@ -1175,10 +1214,13 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>33</v>
+      </c>
       <c r="B20" s="3">
         <v>15070</v>
       </c>
@@ -1191,10 +1233,13 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>34</v>
+      </c>
       <c r="B21" s="3">
         <v>15070</v>
       </c>
@@ -1207,9 +1252,10 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="12"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -1231,9 +1277,10 @@
       <c r="G22" s="3">
         <v>0.92050220592405496</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H22" s="12"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>16</v>
       </c>
@@ -1255,9 +1302,10 @@
       <c r="G23" s="14">
         <v>0.59583690920599897</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H23" s="12"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>17</v>
       </c>
@@ -1279,9 +1327,10 @@
       <c r="G24" s="3">
         <v>0.94038101383637696</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H24" s="12"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>18</v>
       </c>
@@ -1303,9 +1352,10 @@
       <c r="G25" s="3">
         <v>0.90844023616605796</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="12"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -1327,9 +1377,10 @@
       <c r="G26" s="14">
         <v>0.756527052241869</v>
       </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="12"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>20</v>
       </c>
@@ -1347,9 +1398,10 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="12"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>21</v>
       </c>
@@ -1367,10 +1419,13 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>35</v>
+      </c>
       <c r="B29" s="3">
         <v>15070</v>
       </c>
@@ -1382,10 +1437,13 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>36</v>
+      </c>
       <c r="B30" s="3">
         <v>15070</v>
       </c>
@@ -1397,10 +1455,13 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>37</v>
+      </c>
       <c r="B31" s="3">
         <v>15070</v>
       </c>
@@ -1412,9 +1473,10 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="12"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>22</v>
       </c>
@@ -1436,9 +1498,10 @@
       <c r="G32" s="3">
         <v>0.920768673027896</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="12"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>23</v>
       </c>
@@ -1460,9 +1523,10 @@
       <c r="G33" s="14">
         <v>0.77464186511240496</v>
       </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="12"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>24</v>
       </c>
@@ -1484,9 +1548,10 @@
       <c r="G34" s="14">
         <v>0.77034065976211497</v>
       </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="12"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
         <v>25</v>
       </c>
@@ -1504,9 +1569,10 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H35" s="12"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
         <v>26</v>
       </c>
@@ -1524,7 +1590,8 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/实验计划.xlsx
+++ b/doc/实验计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D5E53-E91A-4274-8B1A-70D6DC23FA0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53678126-4012-4FED-B0DC-81B60E8C90E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +311,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,10 +763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -761,11 +776,12 @@
     <col min="3" max="3" width="13.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="4" customWidth="1"/>
     <col min="5" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="9" style="13"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="8" max="8" width="1.25" style="23" customWidth="1"/>
+    <col min="9" max="9" width="9" style="13"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -781,17 +797,18 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -811,14 +828,15 @@
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="H2" s="21"/>
       <c r="I2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -840,10 +858,11 @@
       <c r="G3" s="8">
         <v>0.95449150772313096</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="22"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -865,10 +884,11 @@
       <c r="G4" s="12">
         <v>0.91463422480978895</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>31</v>
       </c>
@@ -886,10 +906,11 @@
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -911,10 +932,11 @@
       <c r="G6" s="14">
         <v>0.59295606510368903</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H6" s="22"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -936,10 +958,11 @@
       <c r="G7" s="14">
         <v>0.54385117502386804</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H7" s="22"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -961,10 +984,15 @@
       <c r="G8" s="14">
         <v>0.56406278619410199</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="22"/>
+      <c r="I8" s="12">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -982,10 +1010,11 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="22"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -1003,10 +1032,11 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H10" s="22"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1028,10 +1058,15 @@
       <c r="G11" s="3">
         <v>0.90036524341873603</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H11" s="22"/>
+      <c r="I11" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1053,10 +1088,11 @@
       <c r="G12" s="3">
         <v>0.898064396551565</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H12" s="22"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1078,10 +1114,15 @@
       <c r="G13" s="3">
         <v>0.90385232896155099</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="22"/>
+      <c r="I13" s="12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -1099,10 +1140,11 @@
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="22"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -1120,10 +1162,11 @@
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H15" s="22"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1145,10 +1188,11 @@
       <c r="G16" s="3">
         <v>0.90357565119680405</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H16" s="22"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1170,10 +1214,11 @@
       <c r="G17" s="14">
         <v>0.84964810329802198</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H17" s="22"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1195,10 +1240,11 @@
       <c r="G18" s="3">
         <v>0.93466269390437595</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H18" s="22"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>32</v>
       </c>
@@ -1214,10 +1260,11 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H19" s="22"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>33</v>
       </c>
@@ -1233,10 +1280,11 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H20" s="22"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>34</v>
       </c>
@@ -1252,10 +1300,11 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H21" s="22"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -1277,10 +1326,11 @@
       <c r="G22" s="3">
         <v>0.92050220592405496</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H22" s="22"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>16</v>
       </c>
@@ -1302,10 +1352,11 @@
       <c r="G23" s="14">
         <v>0.59583690920599897</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H23" s="22"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>17</v>
       </c>
@@ -1327,10 +1378,11 @@
       <c r="G24" s="3">
         <v>0.94038101383637696</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H24" s="22"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>18</v>
       </c>
@@ -1352,10 +1404,11 @@
       <c r="G25" s="3">
         <v>0.90844023616605796</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H25" s="22"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -1377,10 +1430,11 @@
       <c r="G26" s="14">
         <v>0.756527052241869</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="22"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>20</v>
       </c>
@@ -1398,10 +1452,11 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="22"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>21</v>
       </c>
@@ -1419,10 +1474,11 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H28" s="22"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>35</v>
       </c>
@@ -1437,10 +1493,11 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H29" s="22"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>36</v>
       </c>
@@ -1455,10 +1512,11 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H30" s="22"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>37</v>
       </c>
@@ -1473,10 +1531,11 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H31" s="22"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>22</v>
       </c>
@@ -1498,10 +1557,11 @@
       <c r="G32" s="3">
         <v>0.920768673027896</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H32" s="22"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>23</v>
       </c>
@@ -1523,10 +1583,11 @@
       <c r="G33" s="14">
         <v>0.77464186511240496</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H33" s="22"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>24</v>
       </c>
@@ -1548,10 +1609,11 @@
       <c r="G34" s="14">
         <v>0.77034065976211497</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="22"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
         <v>25</v>
       </c>
@@ -1569,10 +1631,11 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H35" s="22"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
         <v>26</v>
       </c>
@@ -1590,8 +1653,9 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="10"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/实验计划.xlsx
+++ b/doc/实验计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53678126-4012-4FED-B0DC-81B60E8C90E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D78871A-820C-422C-A429-D958FFE3735D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据合成实验" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +170,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,35 +285,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +710,7 @@
         <v>0.95449150772313096</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -733,7 +724,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -749,7 +740,7 @@
         <v>0.84467005237936899</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -765,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -776,19 +767,19 @@
     <col min="3" max="3" width="13.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="4" customWidth="1"/>
     <col min="5" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="1.25" style="23" customWidth="1"/>
+    <col min="8" max="8" width="1.25" style="17" customWidth="1"/>
     <col min="9" max="9" width="9" style="13"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -797,11 +788,11 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -821,18 +812,18 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -858,7 +849,7 @@
       <c r="G3" s="8">
         <v>0.95449150772313096</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="12"/>
       <c r="J3" s="8"/>
     </row>
@@ -884,7 +875,7 @@
       <c r="G4" s="12">
         <v>0.91463422480978895</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
@@ -904,9 +895,13 @@
       <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="12">
+        <v>2.6412486572986098E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.91574947313514699</v>
+      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
@@ -929,12 +924,16 @@
       <c r="F6" s="3">
         <v>0.16206485494556999</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>0.59295606510368903</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="4">
+        <v>0.20589552233293701</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.50839427477778898</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -955,12 +954,16 @@
       <c r="F7" s="3">
         <v>0.225412390457191</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>0.54385117502386804</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="12">
+        <v>0.206914085978602</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.536955975513284</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
@@ -981,15 +984,15 @@
       <c r="F8" s="3">
         <v>0.20898721464724501</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>0.56406278619410199</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="12">
-        <v>0.20699999999999999</v>
+        <v>0.20711946658729599</v>
       </c>
       <c r="J8" s="3">
-        <v>0.55500000000000005</v>
+        <v>0.55476172123373002</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
@@ -1009,8 +1012,8 @@
         <v>10</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="22"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
     </row>
@@ -1031,8 +1034,8 @@
         <v>10</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="12"/>
       <c r="J10" s="10"/>
     </row>
@@ -1055,10 +1058,10 @@
       <c r="F11" s="3">
         <v>3.09668468508939E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="12">
         <v>0.90036524341873603</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="12">
         <v>3.1E-2</v>
       </c>
@@ -1085,12 +1088,16 @@
       <c r="F12" s="3">
         <v>2.8388146542886301E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="12">
         <v>0.898064396551565</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="12">
+        <v>3.0841621872488598E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.90749932967776303</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -1111,10 +1118,10 @@
       <c r="F13" s="3">
         <v>2.9810416431802499E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="12">
         <v>0.90385232896155099</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="12">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -1139,8 +1146,8 @@
         <v>12</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="12"/>
       <c r="J14" s="10"/>
     </row>
@@ -1161,8 +1168,8 @@
         <v>12</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="12"/>
       <c r="J15" s="10"/>
     </row>
@@ -1185,12 +1192,16 @@
       <c r="F16" s="3">
         <v>3.0971976714372601E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="12">
         <v>0.90357565119680405</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="3"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="12">
+        <v>3.4114051936563299E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.77896395546692898</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
@@ -1211,12 +1222,16 @@
       <c r="F17" s="3">
         <v>4.5287106886480001E-2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>0.84964810329802198</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="12">
+        <v>5.5144520815781403E-2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.83731080363639399</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -1237,12 +1252,16 @@
       <c r="F18" s="3">
         <v>2.4341006905549099E-2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="12">
         <v>0.93466269390437595</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="3"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="12">
+        <v>2.8565586747381699E-2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.79326174430721896</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
@@ -1258,11 +1277,19 @@
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="3"/>
+      <c r="F19" s="3">
+        <v>2.62662837769524E-2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.92128828588261702</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="12">
+        <v>2.2256336247629498E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.81567614401189603</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
@@ -1278,11 +1305,19 @@
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="3"/>
+      <c r="F20" s="3">
+        <v>2.2643736707588E-2</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.93889294569026505</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="12">
+        <v>2.7671698428994401E-2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.92198942415777296</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
@@ -1298,11 +1333,19 @@
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="3"/>
+      <c r="F21" s="3">
+        <v>2.6871980518442799E-2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.91212437184427697</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="12">
+        <v>4.0120179280262798E-2</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.75252539847758304</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
@@ -1323,12 +1366,16 @@
       <c r="F22" s="3">
         <v>2.6934455701142002E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="12">
         <v>0.92050220592405496</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="3"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="12">
+        <v>3.2195462297131897E-2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.90075707772455305</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -1349,10 +1396,10 @@
       <c r="F23" s="3">
         <v>0.19529573630215999</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>0.59583690920599897</v>
       </c>
-      <c r="H23" s="22"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="12"/>
       <c r="J23" s="3"/>
     </row>
@@ -1375,10 +1422,10 @@
       <c r="F24" s="3">
         <v>2.1264338140964699E-2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="12">
         <v>0.94038101383637696</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="12"/>
       <c r="J24" s="3"/>
     </row>
@@ -1401,12 +1448,16 @@
       <c r="F25" s="3">
         <v>2.84443007711743E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="12">
         <v>0.90844023616605796</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="3"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="12">
+        <v>3.3660512241660299E-2</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.89752528797257203</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
@@ -1427,12 +1478,16 @@
       <c r="F26" s="3">
         <v>5.0833098829138397E-2</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>0.756527052241869</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="3"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="12">
+        <v>3.4767292188034003E-2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.89737719937633798</v>
+      </c>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
@@ -1451,8 +1506,8 @@
         <v>10</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="22"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="12"/>
       <c r="J27" s="10"/>
     </row>
@@ -1473,8 +1528,8 @@
         <v>10</v>
       </c>
       <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="22"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="12"/>
       <c r="J28" s="10"/>
     </row>
@@ -1491,9 +1546,13 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="22"/>
+      <c r="F29" s="3">
+        <v>3.0155678412077901E-2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.91129637984569001</v>
+      </c>
+      <c r="H29" s="16"/>
       <c r="I29" s="12"/>
       <c r="J29" s="3"/>
     </row>
@@ -1510,9 +1569,13 @@
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="22"/>
+      <c r="F30" s="3">
+        <v>2.5180847979003999E-2</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.92656374311953005</v>
+      </c>
+      <c r="H30" s="16"/>
       <c r="I30" s="12"/>
       <c r="J30" s="3"/>
     </row>
@@ -1529,9 +1592,13 @@
       <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="22"/>
+      <c r="F31" s="3">
+        <v>2.74697078541455E-2</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.91641094110543897</v>
+      </c>
+      <c r="H31" s="16"/>
       <c r="I31" s="12"/>
       <c r="J31" s="3"/>
     </row>
@@ -1554,10 +1621,10 @@
       <c r="F32" s="3">
         <v>2.5856256818407801E-2</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="12">
         <v>0.920768673027896</v>
       </c>
-      <c r="H32" s="22"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="12"/>
       <c r="J32" s="3"/>
     </row>
@@ -1580,10 +1647,10 @@
       <c r="F33" s="3">
         <v>3.1039032123056601E-2</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <v>0.77464186511240496</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="12"/>
       <c r="J33" s="3"/>
     </row>
@@ -1606,10 +1673,10 @@
       <c r="F34" s="3">
         <v>3.5327735946268403E-2</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <v>0.77034065976211497</v>
       </c>
-      <c r="H34" s="22"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
@@ -1631,7 +1698,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="22"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="12"/>
       <c r="J35" s="10"/>
     </row>
@@ -1653,7 +1720,7 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="22"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="12"/>
       <c r="J36" s="10"/>
     </row>
